--- a/Casos de Prueba/TPO - TC-PE-54.xlsx
+++ b/Casos de Prueba/TPO - TC-PE-54.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\TestingAplicaciones-SFW-TPO\Casos de Prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Facundo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D65A9C3-315C-4A04-919D-1E40D0ED5D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C30F3D-DB66-4FEB-89DD-6E8F99093077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template 1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="75">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>DF-02: La pagina no muestra en pantalla ningun mensaje y te sigue permitiendo iniciar sesion luego de los 3 intentos.</t>
+  </si>
+  <si>
+    <t>Notifica al usuario del bloqueo</t>
+  </si>
+  <si>
+    <t>Se notifica al usuario del bloqueo</t>
   </si>
 </sst>
 </file>
@@ -738,6 +744,36 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -773,36 +809,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1124,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9261CE-AC9B-4CCB-B585-79CAB2707733}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -1155,10 +1161,10 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1170,10 +1176,10 @@
       <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1185,10 +1191,10 @@
       <c r="C3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="37" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="1"/>
@@ -1296,33 +1302,33 @@
       <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="G14" s="36" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="G14" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
@@ -1338,53 +1344,53 @@
       <c r="E15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37" t="s">
+      <c r="H15" s="47"/>
+      <c r="I15" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37" t="s">
+      <c r="J15" s="47"/>
+      <c r="K15" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37" t="s">
+      <c r="L15" s="47"/>
+      <c r="M15" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="37"/>
+      <c r="N15" s="47"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="38" t="s">
+      <c r="H16" s="31"/>
+      <c r="I16" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38" t="s">
+      <c r="J16" s="31"/>
+      <c r="K16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="39"/>
-      <c r="M16" s="38" t="s">
+      <c r="L16" s="31"/>
+      <c r="M16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="39"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="35"/>
       <c r="G17" s="12" t="s">
         <v>25</v>
       </c>
@@ -1414,14 +1420,14 @@
       <c r="A18" s="16">
         <v>1</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="44" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="45"/>
+      <c r="E18" s="29"/>
       <c r="G18" s="14" t="s">
         <v>27</v>
       </c>
@@ -1439,14 +1445,14 @@
       <c r="A19" s="16">
         <v>2</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="44" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="29"/>
       <c r="G19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1464,14 +1470,14 @@
       <c r="A20" s="16">
         <v>3</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="44" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="45"/>
+      <c r="E20" s="29"/>
       <c r="G20" s="14" t="s">
         <v>27</v>
       </c>
@@ -1487,10 +1493,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -1502,10 +1508,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -1517,10 +1523,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -1531,73 +1537,112 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46" t="s">
+      <c r="H25" s="27"/>
+      <c r="I25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46" t="s">
+      <c r="J25" s="27"/>
+      <c r="K25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46" t="s">
+      <c r="L25" s="27"/>
+      <c r="M25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="46"/>
+      <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
@@ -1610,45 +1655,6 @@
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:N29"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1690,10 +1696,10 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1705,10 +1711,10 @@
       <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1720,10 +1726,10 @@
       <c r="C3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="37" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="1"/>
@@ -1831,33 +1837,33 @@
       <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="G14" s="36" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="G14" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
@@ -1873,53 +1879,53 @@
       <c r="E15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37" t="s">
+      <c r="H15" s="47"/>
+      <c r="I15" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37" t="s">
+      <c r="J15" s="47"/>
+      <c r="K15" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37" t="s">
+      <c r="L15" s="47"/>
+      <c r="M15" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="37"/>
+      <c r="N15" s="47"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="38" t="s">
+      <c r="H16" s="31"/>
+      <c r="I16" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38" t="s">
+      <c r="J16" s="31"/>
+      <c r="K16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="39"/>
-      <c r="M16" s="38" t="s">
+      <c r="L16" s="31"/>
+      <c r="M16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="39"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:14" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="35"/>
       <c r="G17" s="12" t="s">
         <v>25</v>
       </c>
@@ -1949,14 +1955,14 @@
       <c r="A18" s="16">
         <v>1</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="44" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="45"/>
+      <c r="E18" s="29"/>
       <c r="G18" s="14" t="s">
         <v>27</v>
       </c>
@@ -1974,14 +1980,14 @@
       <c r="A19" s="16">
         <v>2</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="44" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="29"/>
       <c r="G19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1999,14 +2005,14 @@
       <c r="A20" s="16">
         <v>3</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="44" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="45"/>
+      <c r="E20" s="29"/>
       <c r="G20" s="14" t="s">
         <v>27</v>
       </c>
@@ -2024,14 +2030,14 @@
       <c r="A21" s="16">
         <v>4</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="44" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="45"/>
+      <c r="E21" s="29"/>
       <c r="G21" s="14" t="s">
         <v>27</v>
       </c>
@@ -2047,10 +2053,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -2062,10 +2068,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -2076,118 +2082,82 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46" t="s">
+      <c r="H25" s="27"/>
+      <c r="I25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46" t="s">
+      <c r="J25" s="27"/>
+      <c r="K25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46" t="s">
+      <c r="L25" s="27"/>
+      <c r="M25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="46"/>
+      <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="K29:L29"/>
@@ -2204,6 +2174,42 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2245,10 +2251,10 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2260,10 +2266,10 @@
       <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -2275,10 +2281,10 @@
       <c r="C3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -2384,33 +2390,33 @@
       <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="G14" s="36" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="G14" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
@@ -2426,53 +2432,53 @@
       <c r="E15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37" t="s">
+      <c r="H15" s="47"/>
+      <c r="I15" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37" t="s">
+      <c r="J15" s="47"/>
+      <c r="K15" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37" t="s">
+      <c r="L15" s="47"/>
+      <c r="M15" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="37"/>
+      <c r="N15" s="47"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="38" t="s">
+      <c r="H16" s="31"/>
+      <c r="I16" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38" t="s">
+      <c r="J16" s="31"/>
+      <c r="K16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="39"/>
-      <c r="M16" s="38" t="s">
+      <c r="L16" s="31"/>
+      <c r="M16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="39"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:14" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="35"/>
       <c r="G17" s="12" t="s">
         <v>25</v>
       </c>
@@ -2502,14 +2508,14 @@
       <c r="A18" s="16">
         <v>1</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="44" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="45"/>
+      <c r="E18" s="29"/>
       <c r="G18" s="14" t="s">
         <v>27</v>
       </c>
@@ -2527,14 +2533,14 @@
       <c r="A19" s="16">
         <v>2</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="44" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="29"/>
       <c r="G19" s="14" t="s">
         <v>27</v>
       </c>
@@ -2552,14 +2558,14 @@
       <c r="A20" s="16">
         <v>3</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="44" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="45"/>
+      <c r="E20" s="29"/>
       <c r="G20" s="14" t="s">
         <v>27</v>
       </c>
@@ -2577,14 +2583,14 @@
       <c r="A21" s="16">
         <v>4</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="44" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="45"/>
+      <c r="E21" s="29"/>
       <c r="G21" s="14" t="s">
         <v>27</v>
       </c>
@@ -2600,10 +2606,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
       <c r="G22" s="14"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -2615,10 +2621,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -2629,124 +2635,82 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46" t="s">
+      <c r="H25" s="27"/>
+      <c r="I25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46" t="s">
+      <c r="J25" s="27"/>
+      <c r="K25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46" t="s">
+      <c r="L25" s="27"/>
+      <c r="M25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="46"/>
+      <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
@@ -2757,6 +2721,48 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2767,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7A5110-67BD-425F-B2CE-4E92CBBC401D}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2799,10 +2805,10 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2814,10 +2820,10 @@
       <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -2829,10 +2835,10 @@
       <c r="C3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="37" t="s">
         <v>54</v>
       </c>
       <c r="F3" s="1"/>
@@ -2940,33 +2946,33 @@
       <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="G14" s="36" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="G14" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
@@ -2982,53 +2988,53 @@
       <c r="E15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37" t="s">
+      <c r="H15" s="47"/>
+      <c r="I15" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37" t="s">
+      <c r="J15" s="47"/>
+      <c r="K15" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37" t="s">
+      <c r="L15" s="47"/>
+      <c r="M15" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="37"/>
+      <c r="N15" s="47"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="38" t="s">
+      <c r="H16" s="31"/>
+      <c r="I16" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38" t="s">
+      <c r="J16" s="31"/>
+      <c r="K16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="39"/>
-      <c r="M16" s="38" t="s">
+      <c r="L16" s="31"/>
+      <c r="M16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="39"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:14" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="35"/>
       <c r="G17" s="12" t="s">
         <v>25</v>
       </c>
@@ -3058,14 +3064,14 @@
       <c r="A18" s="16">
         <v>1</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="44" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="45"/>
+      <c r="E18" s="29"/>
       <c r="G18" s="14" t="s">
         <v>27</v>
       </c>
@@ -3083,14 +3089,14 @@
       <c r="A19" s="16">
         <v>2</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="44" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="29"/>
       <c r="G19" s="14" t="s">
         <v>27</v>
       </c>
@@ -3108,14 +3114,14 @@
       <c r="A20" s="16">
         <v>3</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="44" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="45"/>
+      <c r="E20" s="29"/>
       <c r="G20" s="14" t="s">
         <v>27</v>
       </c>
@@ -3133,14 +3139,14 @@
       <c r="A21" s="16">
         <v>4</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="44" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="45"/>
+      <c r="E21" s="29"/>
       <c r="G21" s="14" t="s">
         <v>27</v>
       </c>
@@ -3156,10 +3162,14 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
+      <c r="B22" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="29"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -3171,10 +3181,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -3185,124 +3195,82 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46" t="s">
+      <c r="H25" s="27"/>
+      <c r="I25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46" t="s">
+      <c r="J25" s="27"/>
+      <c r="K25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46" t="s">
+      <c r="L25" s="27"/>
+      <c r="M25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="46"/>
+      <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
     </row>
     <row r="27" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
@@ -3313,6 +3281,48 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3320,6 +3330,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -3451,22 +3476,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3482,21 +3509,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>